--- a/data/pca/factorExposure/factorExposure_2019-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1315540125783143</v>
+        <v>-0.08041132913467451</v>
       </c>
       <c r="C2">
-        <v>-0.01661660143472565</v>
+        <v>0.03192762924924386</v>
       </c>
       <c r="D2">
-        <v>-0.04495802412537756</v>
+        <v>0.006544476699740832</v>
       </c>
       <c r="E2">
-        <v>0.09498257064909596</v>
+        <v>-0.03996429799794855</v>
       </c>
       <c r="F2">
-        <v>0.100019608600836</v>
+        <v>0.1434004527526893</v>
       </c>
       <c r="G2">
-        <v>0.0868731475142288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09439719301455859</v>
+      </c>
+      <c r="H2">
+        <v>0.07158883299636691</v>
+      </c>
+      <c r="I2">
+        <v>-0.01635432250381679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.219819514002224</v>
+        <v>-0.1625813475367968</v>
       </c>
       <c r="C3">
-        <v>0.08355010870799418</v>
+        <v>0.06559943658493467</v>
       </c>
       <c r="D3">
-        <v>0.01400889294978134</v>
+        <v>-0.05749443428859038</v>
       </c>
       <c r="E3">
-        <v>0.3196991348745362</v>
+        <v>0.03147254609288915</v>
       </c>
       <c r="F3">
-        <v>0.02359089347417607</v>
+        <v>0.3749151815308597</v>
       </c>
       <c r="G3">
-        <v>0.3388152534672091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.04004193834598318</v>
+      </c>
+      <c r="H3">
+        <v>0.2905707423178854</v>
+      </c>
+      <c r="I3">
+        <v>-0.1227592970849215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09827356277113543</v>
+        <v>-0.07463117350262893</v>
       </c>
       <c r="C4">
-        <v>0.02513355971290997</v>
+        <v>0.02290078966251195</v>
       </c>
       <c r="D4">
-        <v>-0.02038818316354669</v>
+        <v>-0.03486474647996306</v>
       </c>
       <c r="E4">
-        <v>0.07537248327937254</v>
+        <v>-0.02918027937226531</v>
       </c>
       <c r="F4">
-        <v>0.04883168418060991</v>
+        <v>0.08794803650395072</v>
       </c>
       <c r="G4">
-        <v>0.03876220999615906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03878138959999727</v>
+      </c>
+      <c r="H4">
+        <v>0.03546400149898806</v>
+      </c>
+      <c r="I4">
+        <v>-0.02447401998242862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01786134303421233</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0005731427179285632</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.007582281641588774</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002269832305140746</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001205764280620096</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01789886610281676</v>
+      </c>
+      <c r="H6">
+        <v>0.002744422542159416</v>
+      </c>
+      <c r="I6">
+        <v>0.007870666610249606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04323230390404266</v>
+        <v>-0.03531359024916162</v>
       </c>
       <c r="C7">
-        <v>0.003860848181203286</v>
+        <v>-0.006738709111075858</v>
       </c>
       <c r="D7">
-        <v>-0.03215065874538998</v>
+        <v>-0.03996009482969067</v>
       </c>
       <c r="E7">
-        <v>0.0718493220082332</v>
+        <v>-0.02539916097508353</v>
       </c>
       <c r="F7">
-        <v>-0.04099428258998692</v>
+        <v>0.05867817270977387</v>
       </c>
       <c r="G7">
-        <v>0.01138941254858265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01214369973203098</v>
+      </c>
+      <c r="H7">
+        <v>0.05264045604937705</v>
+      </c>
+      <c r="I7">
+        <v>0.0169161623967262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.041964171424546</v>
+        <v>-0.03189028345512572</v>
       </c>
       <c r="C8">
-        <v>0.03900020523542477</v>
+        <v>0.02559925271646387</v>
       </c>
       <c r="D8">
-        <v>-0.002296233336400944</v>
+        <v>-0.03540718448560851</v>
       </c>
       <c r="E8">
-        <v>0.07137547288591077</v>
+        <v>-0.01025085264973801</v>
       </c>
       <c r="F8">
-        <v>0.002583227664135354</v>
+        <v>0.08006841038921118</v>
       </c>
       <c r="G8">
-        <v>0.05761571493023099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.006778746423230998</v>
+      </c>
+      <c r="H8">
+        <v>0.06162172983094694</v>
+      </c>
+      <c r="I8">
+        <v>-0.02319823966077536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08681073168345016</v>
+        <v>-0.0637430012678695</v>
       </c>
       <c r="C9">
-        <v>0.02795041723915171</v>
+        <v>0.01983703046258307</v>
       </c>
       <c r="D9">
-        <v>-0.03025283643553931</v>
+        <v>-0.03835780431541267</v>
       </c>
       <c r="E9">
-        <v>0.06645123558982592</v>
+        <v>-0.03037439172188272</v>
       </c>
       <c r="F9">
-        <v>0.03064615124983263</v>
+        <v>0.08761111223498194</v>
       </c>
       <c r="G9">
-        <v>0.04107438531055931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.03170199707651929</v>
+      </c>
+      <c r="H9">
+        <v>0.03073109813706376</v>
+      </c>
+      <c r="I9">
+        <v>-0.004222152337682312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01004525000699063</v>
+        <v>-0.01366884404496407</v>
       </c>
       <c r="C10">
-        <v>-0.1600453605017894</v>
+        <v>-0.1210235651543904</v>
       </c>
       <c r="D10">
-        <v>0.01052592300846882</v>
+        <v>0.1044614504051595</v>
       </c>
       <c r="E10">
-        <v>0.05825334324035616</v>
+        <v>0.01770825062921955</v>
       </c>
       <c r="F10">
-        <v>0.0147615999277696</v>
+        <v>0.06392718446719879</v>
       </c>
       <c r="G10">
-        <v>0.008465609821226327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01990131208904935</v>
+      </c>
+      <c r="H10">
+        <v>0.004504801203369282</v>
+      </c>
+      <c r="I10">
+        <v>-0.1184593004010063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0585860124047365</v>
+        <v>-0.04934027856642052</v>
       </c>
       <c r="C11">
-        <v>0.005018236485207981</v>
+        <v>0.02329556637844199</v>
       </c>
       <c r="D11">
-        <v>0.008650302746440968</v>
+        <v>-0.008174618143625956</v>
       </c>
       <c r="E11">
-        <v>0.04118561970432575</v>
+        <v>-0.005268665946944001</v>
       </c>
       <c r="F11">
-        <v>0.006711899271053054</v>
+        <v>0.04657660715422349</v>
       </c>
       <c r="G11">
-        <v>-0.03092235336606355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002142960175220654</v>
+      </c>
+      <c r="H11">
+        <v>0.01109724518803224</v>
+      </c>
+      <c r="I11">
+        <v>0.02247569260987892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04418100548073424</v>
+        <v>-0.0449742228735619</v>
       </c>
       <c r="C12">
-        <v>0.01110842769040985</v>
+        <v>0.01651459767811345</v>
       </c>
       <c r="D12">
-        <v>0.005221656695310301</v>
+        <v>-0.01734918679577427</v>
       </c>
       <c r="E12">
-        <v>0.03386684746447183</v>
+        <v>-0.007482041060618162</v>
       </c>
       <c r="F12">
-        <v>0.001631799907171134</v>
+        <v>0.02503057178470107</v>
       </c>
       <c r="G12">
-        <v>-0.007647816976826926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.004512217678626685</v>
+      </c>
+      <c r="H12">
+        <v>0.009182576201146056</v>
+      </c>
+      <c r="I12">
+        <v>0.01982148615727062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06198473291698994</v>
+        <v>-0.04230782075594403</v>
       </c>
       <c r="C13">
-        <v>0.01517980269167319</v>
+        <v>0.02714624312008205</v>
       </c>
       <c r="D13">
-        <v>0.007540702138707969</v>
+        <v>-0.0009791905154422956</v>
       </c>
       <c r="E13">
-        <v>0.109283704487123</v>
+        <v>-0.00541091071697991</v>
       </c>
       <c r="F13">
-        <v>0.0238305947880289</v>
+        <v>0.1061293632017314</v>
       </c>
       <c r="G13">
-        <v>0.03523325039120391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.01318330466381981</v>
+      </c>
+      <c r="H13">
+        <v>0.05829451846144357</v>
+      </c>
+      <c r="I13">
+        <v>0.0003370050728482043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03743200973702014</v>
+        <v>-0.02932758629340507</v>
       </c>
       <c r="C14">
-        <v>0.008097247305392909</v>
+        <v>0.01006508721689045</v>
       </c>
       <c r="D14">
-        <v>-0.02040718396866509</v>
+        <v>-0.01523147076028275</v>
       </c>
       <c r="E14">
-        <v>0.01965325640827471</v>
+        <v>-0.02421581375967605</v>
       </c>
       <c r="F14">
-        <v>-0.001233338565149377</v>
+        <v>0.03929544441386544</v>
       </c>
       <c r="G14">
-        <v>0.01609180250534265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02015882600104831</v>
+      </c>
+      <c r="H14">
+        <v>0.05730085266661513</v>
+      </c>
+      <c r="I14">
+        <v>-0.009774819777199172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04862547604558291</v>
+        <v>-0.04373379573012996</v>
       </c>
       <c r="C16">
-        <v>0.02108458103571475</v>
+        <v>0.02647300910648464</v>
       </c>
       <c r="D16">
-        <v>0.01541983191760156</v>
+        <v>-0.01830991866998185</v>
       </c>
       <c r="E16">
-        <v>0.03897295278550856</v>
+        <v>-0.001116907484101995</v>
       </c>
       <c r="F16">
-        <v>0.0001854749392332484</v>
+        <v>0.03916440521021382</v>
       </c>
       <c r="G16">
-        <v>-0.0168499968760704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008653973754729052</v>
+      </c>
+      <c r="H16">
+        <v>0.01472402126314572</v>
+      </c>
+      <c r="I16">
+        <v>0.0196898520757032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05287103208424034</v>
+        <v>-0.04599024720709625</v>
       </c>
       <c r="C19">
-        <v>0.02294060773699839</v>
+        <v>0.02794101063853557</v>
       </c>
       <c r="D19">
-        <v>-0.001092027815701614</v>
+        <v>-0.01971055880395553</v>
       </c>
       <c r="E19">
-        <v>0.07895696644685903</v>
+        <v>-0.009615555689953438</v>
       </c>
       <c r="F19">
-        <v>-0.006516721220611508</v>
+        <v>0.09056003711261394</v>
       </c>
       <c r="G19">
-        <v>0.05872081797110965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.003310632766836244</v>
+      </c>
+      <c r="H19">
+        <v>0.08787432312206844</v>
+      </c>
+      <c r="I19">
+        <v>-0.01689748744246282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03701681132184625</v>
+        <v>-0.01822186182286235</v>
       </c>
       <c r="C20">
-        <v>0.0341710420761198</v>
+        <v>0.02275029269966664</v>
       </c>
       <c r="D20">
-        <v>-0.01362834881845864</v>
+        <v>-0.0266243051545831</v>
       </c>
       <c r="E20">
-        <v>0.0670479855373191</v>
+        <v>-0.01698973145892075</v>
       </c>
       <c r="F20">
-        <v>-0.01190075305934175</v>
+        <v>0.07377806116423746</v>
       </c>
       <c r="G20">
-        <v>0.02761661073360946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0009933514185345705</v>
+      </c>
+      <c r="H20">
+        <v>0.07904078451540446</v>
+      </c>
+      <c r="I20">
+        <v>-0.006687863455720841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03924294974555453</v>
+        <v>-0.02167765592364364</v>
       </c>
       <c r="C21">
-        <v>0.01499511614108109</v>
+        <v>0.01289449251717084</v>
       </c>
       <c r="D21">
-        <v>0.0006319843040995322</v>
+        <v>-0.02949041276594521</v>
       </c>
       <c r="E21">
-        <v>0.087476978293451</v>
+        <v>-5.988765274409992e-06</v>
       </c>
       <c r="F21">
-        <v>0.04990082050560199</v>
+        <v>0.08113315914599718</v>
       </c>
       <c r="G21">
-        <v>0.02225487966778928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02689990202262578</v>
+      </c>
+      <c r="H21">
+        <v>0.03631199143536454</v>
+      </c>
+      <c r="I21">
+        <v>0.01070085601071159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04887256499294013</v>
+        <v>-0.04186831880131254</v>
       </c>
       <c r="C24">
-        <v>0.01410559426779955</v>
+        <v>0.0177621221396652</v>
       </c>
       <c r="D24">
-        <v>0.003278658577732765</v>
+        <v>-0.01184061840224948</v>
       </c>
       <c r="E24">
-        <v>0.04851406767070725</v>
+        <v>-0.006148898683438528</v>
       </c>
       <c r="F24">
-        <v>0.002716661646481826</v>
+        <v>0.04613551135623216</v>
       </c>
       <c r="G24">
-        <v>-0.01248373621235126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.009065774257838239</v>
+      </c>
+      <c r="H24">
+        <v>0.01460268849664006</v>
+      </c>
+      <c r="I24">
+        <v>0.01970242882317165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0489748697318811</v>
+        <v>-0.04336725755022424</v>
       </c>
       <c r="C25">
-        <v>0.003711771482368943</v>
+        <v>0.01819949297779133</v>
       </c>
       <c r="D25">
-        <v>0.005138604352276244</v>
+        <v>-0.01111897373895316</v>
       </c>
       <c r="E25">
-        <v>0.04627244913613163</v>
+        <v>-0.00403156483397134</v>
       </c>
       <c r="F25">
-        <v>0.01029899561196452</v>
+        <v>0.05057133772393657</v>
       </c>
       <c r="G25">
-        <v>-0.01837692384433491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002391275635002484</v>
+      </c>
+      <c r="H25">
+        <v>0.008327943535822207</v>
+      </c>
+      <c r="I25">
+        <v>0.02024130986234652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008270003295451333</v>
+        <v>-0.01360099613763284</v>
       </c>
       <c r="C26">
-        <v>0.01577354126922008</v>
+        <v>0.01558706664082578</v>
       </c>
       <c r="D26">
-        <v>-0.004898370266582081</v>
+        <v>-0.007914425126209219</v>
       </c>
       <c r="E26">
-        <v>0.05045941017162004</v>
+        <v>0.001452891675893581</v>
       </c>
       <c r="F26">
-        <v>0.01850990537554154</v>
+        <v>0.05475741067357812</v>
       </c>
       <c r="G26">
-        <v>-0.002665771683792675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01030250150192886</v>
+      </c>
+      <c r="H26">
+        <v>0.03648933497383076</v>
+      </c>
+      <c r="I26">
+        <v>0.01370220326856539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1099850148526108</v>
+        <v>-0.08142525578652961</v>
       </c>
       <c r="C27">
-        <v>0.0155154844198022</v>
+        <v>0.01866477189793351</v>
       </c>
       <c r="D27">
-        <v>-0.0221213973559742</v>
+        <v>-0.01750987626460319</v>
       </c>
       <c r="E27">
-        <v>0.1127616702460518</v>
+        <v>-0.03116451803294963</v>
       </c>
       <c r="F27">
-        <v>0.02186069973775513</v>
+        <v>0.08305139443431614</v>
       </c>
       <c r="G27">
-        <v>0.01332512944251094</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.006939151572883476</v>
+      </c>
+      <c r="H27">
+        <v>0.01782123821711685</v>
+      </c>
+      <c r="I27">
+        <v>-0.005985246093100338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01001033353786571</v>
+        <v>-0.02743326709463693</v>
       </c>
       <c r="C28">
-        <v>-0.2463517350457908</v>
+        <v>-0.1854280294257039</v>
       </c>
       <c r="D28">
-        <v>0.01991965196037847</v>
+        <v>0.1477742851107535</v>
       </c>
       <c r="E28">
-        <v>0.03267560695456791</v>
+        <v>0.02389532702519595</v>
       </c>
       <c r="F28">
-        <v>0.00776052314750128</v>
+        <v>0.04583351229518407</v>
       </c>
       <c r="G28">
-        <v>0.01783228738549994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02205567180196646</v>
+      </c>
+      <c r="H28">
+        <v>-0.004085298194800157</v>
+      </c>
+      <c r="I28">
+        <v>-0.1655687491014174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02097787504995114</v>
+        <v>-0.02184421105408837</v>
       </c>
       <c r="C29">
-        <v>0.01613675254056077</v>
+        <v>0.01011475830738538</v>
       </c>
       <c r="D29">
-        <v>-0.02206228430351399</v>
+        <v>-0.02019080063359889</v>
       </c>
       <c r="E29">
-        <v>0.02723171372119801</v>
+        <v>-0.02297571276993011</v>
       </c>
       <c r="F29">
-        <v>0.01186531250028382</v>
+        <v>0.039529925189543</v>
       </c>
       <c r="G29">
-        <v>0.01506003054821377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02298392115791546</v>
+      </c>
+      <c r="H29">
+        <v>0.05478103012785498</v>
+      </c>
+      <c r="I29">
+        <v>-0.002604856150921177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1065428354388417</v>
+        <v>-0.09767974575368524</v>
       </c>
       <c r="C30">
-        <v>0.006825963917408788</v>
+        <v>0.0506457125227118</v>
       </c>
       <c r="D30">
-        <v>-0.02021310735729027</v>
+        <v>0.01101556091522967</v>
       </c>
       <c r="E30">
-        <v>0.1136514307136976</v>
+        <v>-0.03003627367815863</v>
       </c>
       <c r="F30">
-        <v>0.02829560450473505</v>
+        <v>0.1097237800408986</v>
       </c>
       <c r="G30">
-        <v>-0.07975062811677303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.007904938579439077</v>
+      </c>
+      <c r="H30">
+        <v>0.01293244634313809</v>
+      </c>
+      <c r="I30">
+        <v>0.02165139005404819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.05857561869074951</v>
+        <v>-0.06125002040935668</v>
       </c>
       <c r="C31">
-        <v>0.01309691781559832</v>
+        <v>0.02330112158565894</v>
       </c>
       <c r="D31">
-        <v>-0.01555121375656355</v>
+        <v>-0.002985481151389841</v>
       </c>
       <c r="E31">
-        <v>-0.02064310622381044</v>
+        <v>-0.0184572425675875</v>
       </c>
       <c r="F31">
-        <v>0.007093384766736738</v>
+        <v>0.007663864450037855</v>
       </c>
       <c r="G31">
-        <v>-0.0177713585477612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03609425533481544</v>
+      </c>
+      <c r="H31">
+        <v>0.03898799393018533</v>
+      </c>
+      <c r="I31">
+        <v>-0.007983345196832404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07029212293248034</v>
+        <v>-0.04800051377737269</v>
       </c>
       <c r="C32">
-        <v>0.02485681108050686</v>
+        <v>0.02935619470629986</v>
       </c>
       <c r="D32">
-        <v>-0.01421457998022012</v>
+        <v>-0.04049436233795773</v>
       </c>
       <c r="E32">
-        <v>0.1150475469799928</v>
+        <v>-0.02566775941091623</v>
       </c>
       <c r="F32">
-        <v>-0.002765984995169395</v>
+        <v>0.0990090489793177</v>
       </c>
       <c r="G32">
-        <v>0.01178657319535575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0001124819708431478</v>
+      </c>
+      <c r="H32">
+        <v>0.05066397619716712</v>
+      </c>
+      <c r="I32">
+        <v>-0.01310248172681015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06852343657538697</v>
+        <v>-0.05860586844445763</v>
       </c>
       <c r="C33">
-        <v>0.03078288963806088</v>
+        <v>0.04785211904079649</v>
       </c>
       <c r="D33">
-        <v>-0.009838360632354328</v>
+        <v>-0.01219317773023037</v>
       </c>
       <c r="E33">
-        <v>0.07213873947901175</v>
+        <v>-0.004676515192736545</v>
       </c>
       <c r="F33">
-        <v>0.04645509627208727</v>
+        <v>0.08602178570272111</v>
       </c>
       <c r="G33">
-        <v>0.00795562232756822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02372342664726342</v>
+      </c>
+      <c r="H33">
+        <v>0.04852010090995757</v>
+      </c>
+      <c r="I33">
+        <v>0.02041748351959842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04853005943905669</v>
+        <v>-0.04378276065264225</v>
       </c>
       <c r="C34">
-        <v>0.01306933846612361</v>
+        <v>0.02046335624620857</v>
       </c>
       <c r="D34">
-        <v>0.005193278451397009</v>
+        <v>-0.01973152643305122</v>
       </c>
       <c r="E34">
-        <v>0.02697680871281682</v>
+        <v>-0.01070908600038222</v>
       </c>
       <c r="F34">
-        <v>-0.00299666343432597</v>
+        <v>0.03913205255336834</v>
       </c>
       <c r="G34">
-        <v>-0.006969779676376602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0005288916982060633</v>
+      </c>
+      <c r="H34">
+        <v>0.01836773545818654</v>
+      </c>
+      <c r="I34">
+        <v>0.0204676707880681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01271138317962607</v>
+        <v>-0.01497667141403906</v>
       </c>
       <c r="C36">
-        <v>-0.01037700716906825</v>
+        <v>-0.001196607877860653</v>
       </c>
       <c r="D36">
-        <v>-0.005970304543979997</v>
+        <v>-0.004516770047737086</v>
       </c>
       <c r="E36">
-        <v>0.0233114498163935</v>
+        <v>-0.008602533709973562</v>
       </c>
       <c r="F36">
-        <v>0.008530992218359266</v>
+        <v>0.03058878837953791</v>
       </c>
       <c r="G36">
-        <v>-0.00153680878644929</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01725273765558778</v>
+      </c>
+      <c r="H36">
+        <v>0.0329673233785483</v>
+      </c>
+      <c r="I36">
+        <v>0.001751128280155156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05734964042864563</v>
+        <v>-0.03336621560532749</v>
       </c>
       <c r="C38">
-        <v>0.003610311978975358</v>
+        <v>0.006719494265528763</v>
       </c>
       <c r="D38">
-        <v>-0.02478486278790743</v>
+        <v>-0.00797153551890328</v>
       </c>
       <c r="E38">
-        <v>0.03323852249869556</v>
+        <v>-0.00919942765680354</v>
       </c>
       <c r="F38">
-        <v>0.01013115290747672</v>
+        <v>0.05363054326574154</v>
       </c>
       <c r="G38">
-        <v>0.04512145833398185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02565996239714522</v>
+      </c>
+      <c r="H38">
+        <v>0.01705049541904167</v>
+      </c>
+      <c r="I38">
+        <v>0.007012333824561237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07562307792438784</v>
+        <v>-0.05909438688391198</v>
       </c>
       <c r="C39">
-        <v>0.01098134775795592</v>
+        <v>0.03250915585471586</v>
       </c>
       <c r="D39">
-        <v>-0.001379304788588078</v>
+        <v>-0.01726171924404638</v>
       </c>
       <c r="E39">
-        <v>0.04563125229183641</v>
+        <v>-0.01610696348312482</v>
       </c>
       <c r="F39">
-        <v>0.02270787780331615</v>
+        <v>0.06175563725605746</v>
       </c>
       <c r="G39">
-        <v>-0.02539418522843035</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01064959488556477</v>
+      </c>
+      <c r="H39">
+        <v>0.01025174811260862</v>
+      </c>
+      <c r="I39">
+        <v>0.03737854056816744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07191287180710319</v>
+        <v>-0.05756573533300668</v>
       </c>
       <c r="C40">
-        <v>0.02571092662174674</v>
+        <v>0.0400608290990031</v>
       </c>
       <c r="D40">
-        <v>-0.004147516207161257</v>
+        <v>-0.002815870223818533</v>
       </c>
       <c r="E40">
-        <v>0.1059797851949325</v>
+        <v>-0.02051052772095924</v>
       </c>
       <c r="F40">
-        <v>0.04173171036755697</v>
+        <v>0.1093945479872969</v>
       </c>
       <c r="G40">
-        <v>0.09130745307238031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01003367349869072</v>
+      </c>
+      <c r="H40">
+        <v>0.07622549273222216</v>
+      </c>
+      <c r="I40">
+        <v>0.01042001459358065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003947318443084319</v>
+        <v>-0.002227439343407333</v>
       </c>
       <c r="C41">
-        <v>0.01340944087333802</v>
+        <v>0.009230005757093578</v>
       </c>
       <c r="D41">
-        <v>-0.01723995013155512</v>
+        <v>-0.007922594711142145</v>
       </c>
       <c r="E41">
-        <v>0.008914795583514738</v>
+        <v>-0.005941245549210836</v>
       </c>
       <c r="F41">
-        <v>0.02410863896267532</v>
+        <v>0.01727531749818983</v>
       </c>
       <c r="G41">
-        <v>0.01429058775404001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0309364739725642</v>
+      </c>
+      <c r="H41">
+        <v>0.04025636639068979</v>
+      </c>
+      <c r="I41">
+        <v>-0.0184068017370012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1320081092295445</v>
+        <v>-0.2301507668202366</v>
       </c>
       <c r="C42">
-        <v>0.1858506819271333</v>
+        <v>0.1569370482399367</v>
       </c>
       <c r="D42">
-        <v>0.935971772693579</v>
+        <v>-0.02705013952232221</v>
       </c>
       <c r="E42">
-        <v>-0.01006209721606135</v>
+        <v>0.9312788629385489</v>
       </c>
       <c r="F42">
-        <v>-0.01222848653007067</v>
+        <v>-0.1501994425072659</v>
       </c>
       <c r="G42">
-        <v>-0.09285405161900798</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.006199434597848921</v>
+      </c>
+      <c r="H42">
+        <v>-0.002347556101775237</v>
+      </c>
+      <c r="I42">
+        <v>-0.03799789305826302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007502533623708623</v>
+        <v>-0.004920875585395297</v>
       </c>
       <c r="C43">
-        <v>0.01463616206444914</v>
+        <v>0.01268508608079882</v>
       </c>
       <c r="D43">
-        <v>-0.0168216964713152</v>
+        <v>-0.00725725524218486</v>
       </c>
       <c r="E43">
-        <v>0.03059678590549366</v>
+        <v>-0.006442506750390469</v>
       </c>
       <c r="F43">
-        <v>0.001250456753823459</v>
+        <v>0.03122619638520184</v>
       </c>
       <c r="G43">
-        <v>0.005282161564334556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01404664691482078</v>
+      </c>
+      <c r="H43">
+        <v>0.03978592439098526</v>
+      </c>
+      <c r="I43">
+        <v>-0.008907781365767177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04363675725971135</v>
+        <v>-0.03069912859580714</v>
       </c>
       <c r="C44">
-        <v>0.0351409515791531</v>
+        <v>0.02761197456144418</v>
       </c>
       <c r="D44">
-        <v>-0.01181154508907079</v>
+        <v>-0.02340759654862208</v>
       </c>
       <c r="E44">
-        <v>0.1025351200026152</v>
+        <v>-0.003874773182859243</v>
       </c>
       <c r="F44">
-        <v>0.08564865131673027</v>
+        <v>0.1205361284592472</v>
       </c>
       <c r="G44">
-        <v>0.08230363826581431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05045513266226338</v>
+      </c>
+      <c r="H44">
+        <v>0.1098139124928368</v>
+      </c>
+      <c r="I44">
+        <v>-0.02127058045758452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02498455477242182</v>
+        <v>-0.02407602895465417</v>
       </c>
       <c r="C46">
-        <v>0.0126691288112332</v>
+        <v>0.02265460167417116</v>
       </c>
       <c r="D46">
-        <v>-0.02236937846428716</v>
+        <v>-0.01423385091574579</v>
       </c>
       <c r="E46">
-        <v>0.02025882043965001</v>
+        <v>-0.01997254266028628</v>
       </c>
       <c r="F46">
-        <v>0.01887753990365847</v>
+        <v>0.0484001635627034</v>
       </c>
       <c r="G46">
-        <v>0.01475690897769441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02031172192471241</v>
+      </c>
+      <c r="H46">
+        <v>0.06129231515895508</v>
+      </c>
+      <c r="I46">
+        <v>-0.00813407183665181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08290076396366891</v>
+        <v>-0.09088096029263833</v>
       </c>
       <c r="C47">
-        <v>0.00807105847883193</v>
+        <v>0.01964932550179642</v>
       </c>
       <c r="D47">
-        <v>-0.01818231896920252</v>
+        <v>-0.005623384031821038</v>
       </c>
       <c r="E47">
-        <v>-0.02496850957060326</v>
+        <v>-0.0246562327958556</v>
       </c>
       <c r="F47">
-        <v>0.0004410132439379726</v>
+        <v>-0.003041683817637313</v>
       </c>
       <c r="G47">
-        <v>0.003014341202311355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03434116728674083</v>
+      </c>
+      <c r="H47">
+        <v>0.06081391287891608</v>
+      </c>
+      <c r="I47">
+        <v>-0.01063867747388479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01499275694664621</v>
+        <v>-0.01715244831952145</v>
       </c>
       <c r="C48">
-        <v>0.01631532294398692</v>
+        <v>0.01455413935379375</v>
       </c>
       <c r="D48">
-        <v>-0.015856115336927</v>
+        <v>-0.01359423536908937</v>
       </c>
       <c r="E48">
-        <v>0.03340148591491911</v>
+        <v>-0.009990703448054958</v>
       </c>
       <c r="F48">
-        <v>0.01563284324398604</v>
+        <v>0.03551615439686984</v>
       </c>
       <c r="G48">
-        <v>0.006325957889136157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0107631549432177</v>
+      </c>
+      <c r="H48">
+        <v>0.02696487184353688</v>
+      </c>
+      <c r="I48">
+        <v>-0.009449619546803152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08436976275283894</v>
+        <v>-0.08745103521174352</v>
       </c>
       <c r="C50">
-        <v>0.02619881949443535</v>
+        <v>0.02209453405370243</v>
       </c>
       <c r="D50">
-        <v>-0.02718570967976133</v>
+        <v>-0.02775605874416828</v>
       </c>
       <c r="E50">
-        <v>-0.02178538818430496</v>
+        <v>-0.02106487393685663</v>
       </c>
       <c r="F50">
-        <v>-0.0005599367845613083</v>
+        <v>0.003165401160934248</v>
       </c>
       <c r="G50">
-        <v>-0.0142491481336718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.003189746631024806</v>
+      </c>
+      <c r="H50">
+        <v>0.04711834430266507</v>
+      </c>
+      <c r="I50">
+        <v>0.01156466753124003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.07035001902773989</v>
+        <v>-0.04764095135705428</v>
       </c>
       <c r="C51">
-        <v>-0.02468896086458545</v>
+        <v>0.004714622960069737</v>
       </c>
       <c r="D51">
-        <v>0.002622675237701162</v>
+        <v>0.01487458149845904</v>
       </c>
       <c r="E51">
-        <v>0.07221642192991001</v>
+        <v>-0.00887544455892289</v>
       </c>
       <c r="F51">
-        <v>0.05261971805161823</v>
+        <v>0.09538755146804756</v>
       </c>
       <c r="G51">
-        <v>-0.02970039506661942</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04714911100572251</v>
+      </c>
+      <c r="H51">
+        <v>0.06165099559983227</v>
+      </c>
+      <c r="I51">
+        <v>-0.01745037123486333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1466853312341866</v>
+        <v>-0.1278473396381183</v>
       </c>
       <c r="C53">
-        <v>0.00941721769121614</v>
+        <v>0.03339708350205847</v>
       </c>
       <c r="D53">
-        <v>-0.03992725538573901</v>
+        <v>-0.01359957929337683</v>
       </c>
       <c r="E53">
-        <v>-0.04045251745278699</v>
+        <v>-0.04680232129087115</v>
       </c>
       <c r="F53">
-        <v>-0.01940071423495913</v>
+        <v>-0.03343968281122002</v>
       </c>
       <c r="G53">
-        <v>-0.02016098496887255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01876219596909753</v>
+      </c>
+      <c r="H53">
+        <v>0.005218922729150064</v>
+      </c>
+      <c r="I53">
+        <v>-0.03233034375858134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02645725934864867</v>
+        <v>-0.02262165441625539</v>
       </c>
       <c r="C54">
-        <v>-0.004476988468041999</v>
+        <v>0.003517909048840218</v>
       </c>
       <c r="D54">
-        <v>-0.02877967091682186</v>
+        <v>-0.009879547243397416</v>
       </c>
       <c r="E54">
-        <v>0.02928289543369704</v>
+        <v>-0.02637274356084131</v>
       </c>
       <c r="F54">
-        <v>0.04203302684525736</v>
+        <v>0.04321612116158983</v>
       </c>
       <c r="G54">
-        <v>0.02804139176365996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04067410383819758</v>
+      </c>
+      <c r="H54">
+        <v>0.05352317635595768</v>
+      </c>
+      <c r="I54">
+        <v>-0.03270789915997526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09859387918009867</v>
+        <v>-0.1025683816042036</v>
       </c>
       <c r="C55">
-        <v>-0.003934965568983628</v>
+        <v>0.009993480701741218</v>
       </c>
       <c r="D55">
-        <v>-0.03748008264784197</v>
+        <v>-0.02124251268859454</v>
       </c>
       <c r="E55">
-        <v>-0.005108063767091187</v>
+        <v>-0.03385383162073189</v>
       </c>
       <c r="F55">
-        <v>-0.03350818601597735</v>
+        <v>-0.02277481246083705</v>
       </c>
       <c r="G55">
-        <v>-0.006311353128657475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.00935559810353862</v>
+      </c>
+      <c r="H55">
+        <v>0.02401067810730187</v>
+      </c>
+      <c r="I55">
+        <v>-0.01279378051872626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1793304760719672</v>
+        <v>-0.16862172050954</v>
       </c>
       <c r="C56">
-        <v>-0.01490166017989129</v>
+        <v>0.01429669295055871</v>
       </c>
       <c r="D56">
-        <v>-0.07416180232715548</v>
+        <v>-0.0101821298698572</v>
       </c>
       <c r="E56">
-        <v>-0.07171123498938711</v>
+        <v>-0.08629953264085108</v>
       </c>
       <c r="F56">
-        <v>-0.07098232948436992</v>
+        <v>-0.07313990322580791</v>
       </c>
       <c r="G56">
-        <v>-0.02767159309392178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0246051846064881</v>
+      </c>
+      <c r="H56">
+        <v>-0.03553862269193973</v>
+      </c>
+      <c r="I56">
+        <v>-0.01660858041767779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.0912825255305718</v>
+        <v>-0.07093353982019929</v>
       </c>
       <c r="C57">
-        <v>0.02124709981557124</v>
+        <v>0.03203188941835634</v>
       </c>
       <c r="D57">
-        <v>-0.02445557185410603</v>
+        <v>-0.003810997106792413</v>
       </c>
       <c r="E57">
-        <v>0.06193386991223184</v>
+        <v>-0.01250963493062749</v>
       </c>
       <c r="F57">
-        <v>0.02089953803292776</v>
+        <v>0.06989900421079431</v>
       </c>
       <c r="G57">
-        <v>0.02668352701140638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.01101272392273544</v>
+      </c>
+      <c r="H57">
+        <v>0.03563566319472543</v>
+      </c>
+      <c r="I57">
+        <v>0.0159737217773517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1730750928636688</v>
+        <v>-0.2004304433239895</v>
       </c>
       <c r="C58">
-        <v>-0.005881619655984495</v>
+        <v>0.08806114000966411</v>
       </c>
       <c r="D58">
-        <v>0.03878099148897543</v>
+        <v>0.03956623029923032</v>
       </c>
       <c r="E58">
-        <v>0.1416846654651375</v>
+        <v>0.02335705190404088</v>
       </c>
       <c r="F58">
-        <v>-0.05305219088732317</v>
+        <v>0.1946951833683459</v>
       </c>
       <c r="G58">
-        <v>0.1784564970579072</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.125291377949072</v>
+      </c>
+      <c r="H58">
+        <v>0.3064647638213829</v>
+      </c>
+      <c r="I58">
+        <v>-0.05721741908094908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.002754198224303291</v>
+        <v>-0.03062815949908614</v>
       </c>
       <c r="C59">
-        <v>-0.2056028515096986</v>
+        <v>-0.1471271961362443</v>
       </c>
       <c r="D59">
-        <v>-0.01050572270627214</v>
+        <v>0.1401682491720101</v>
       </c>
       <c r="E59">
-        <v>0.04985436364322618</v>
+        <v>-0.008934499027587467</v>
       </c>
       <c r="F59">
-        <v>0.007681400757999417</v>
+        <v>0.06355246581221023</v>
       </c>
       <c r="G59">
-        <v>0.003266289703208734</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00200709108848743</v>
+      </c>
+      <c r="H59">
+        <v>-0.007612713884666336</v>
+      </c>
+      <c r="I59">
+        <v>-0.07130442026024827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1845112391596813</v>
+        <v>-0.180429846480856</v>
       </c>
       <c r="C60">
-        <v>-0.1171161027722333</v>
+        <v>-0.0194914648078852</v>
       </c>
       <c r="D60">
-        <v>-0.02908134379168287</v>
+        <v>0.079230328287692</v>
       </c>
       <c r="E60">
-        <v>0.1695659980957124</v>
+        <v>-0.01819088643121624</v>
       </c>
       <c r="F60">
-        <v>0.06028887648108378</v>
+        <v>0.20305806490642</v>
       </c>
       <c r="G60">
-        <v>-0.1537397781345647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07925934021027614</v>
+      </c>
+      <c r="H60">
+        <v>-0.2560678468848064</v>
+      </c>
+      <c r="I60">
+        <v>0.08394662249799363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04490656605021817</v>
+        <v>-0.03847662459772001</v>
       </c>
       <c r="C61">
-        <v>-0.002363937927373971</v>
+        <v>0.01446461229763423</v>
       </c>
       <c r="D61">
-        <v>0.008103683854975854</v>
+        <v>-0.01094741148393047</v>
       </c>
       <c r="E61">
-        <v>0.04974798848449612</v>
+        <v>-0.003510105827159127</v>
       </c>
       <c r="F61">
-        <v>0.02456336832449705</v>
+        <v>0.0499225418184087</v>
       </c>
       <c r="G61">
-        <v>-0.01455847375628761</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.00872778242710009</v>
+      </c>
+      <c r="H61">
+        <v>0.00227877017323595</v>
+      </c>
+      <c r="I61">
+        <v>0.03959902125912345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0456482164407745</v>
+        <v>-0.03116224538108455</v>
       </c>
       <c r="C63">
-        <v>-0.006792500536193706</v>
+        <v>0.01387028433402444</v>
       </c>
       <c r="D63">
-        <v>-0.01450140915436432</v>
+        <v>-0.00824748278709783</v>
       </c>
       <c r="E63">
-        <v>0.03898574353301402</v>
+        <v>-0.01354395261434902</v>
       </c>
       <c r="F63">
-        <v>0.00698428958102607</v>
+        <v>0.03370809974052143</v>
       </c>
       <c r="G63">
-        <v>0.003446172608551093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008026117141572406</v>
+      </c>
+      <c r="H63">
+        <v>0.04711385045314463</v>
+      </c>
+      <c r="I63">
+        <v>-0.02106288908859919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07802100640768439</v>
+        <v>-0.05719238522047374</v>
       </c>
       <c r="C64">
-        <v>0.03746338677119276</v>
+        <v>0.02713418020742524</v>
       </c>
       <c r="D64">
-        <v>-0.06356551162928402</v>
+        <v>-0.03886939981392505</v>
       </c>
       <c r="E64">
-        <v>0.07424625345422907</v>
+        <v>-0.04052508316889828</v>
       </c>
       <c r="F64">
-        <v>0.07769915727179778</v>
+        <v>0.06927715410490967</v>
       </c>
       <c r="G64">
-        <v>-0.007048803087853272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0502111856939975</v>
+      </c>
+      <c r="H64">
+        <v>0.01047590916594283</v>
+      </c>
+      <c r="I64">
+        <v>-0.006469345255654574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01951933664165698</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.0002218046423260685</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.00809035108777597</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002438773243882123</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001408382675383608</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01942890062177562</v>
+      </c>
+      <c r="H65">
+        <v>-0.00119893358573765</v>
+      </c>
+      <c r="I65">
+        <v>0.009509588789966703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.09567560276432131</v>
+        <v>-0.07106021738330347</v>
       </c>
       <c r="C66">
-        <v>0.01762888761535049</v>
+        <v>0.04730931656091473</v>
       </c>
       <c r="D66">
-        <v>-0.0401015015252691</v>
+        <v>-0.01894007635961038</v>
       </c>
       <c r="E66">
-        <v>0.07710138484650626</v>
+        <v>-0.04281105995831794</v>
       </c>
       <c r="F66">
-        <v>0.04172606436968267</v>
+        <v>0.08095695702950696</v>
       </c>
       <c r="G66">
-        <v>-0.0267061341614297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.008634629351035804</v>
+      </c>
+      <c r="H66">
+        <v>0.00487447000098217</v>
+      </c>
+      <c r="I66">
+        <v>0.05802359799653467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06441782415865788</v>
+        <v>-0.04388295935006955</v>
       </c>
       <c r="C67">
-        <v>-0.01983704002307018</v>
+        <v>-0.004233439691589766</v>
       </c>
       <c r="D67">
-        <v>-0.01194111023007604</v>
+        <v>0.005478892273157723</v>
       </c>
       <c r="E67">
-        <v>0.02663233468032444</v>
+        <v>-0.007527003202926183</v>
       </c>
       <c r="F67">
-        <v>0.009600709894751706</v>
+        <v>0.04226637683252259</v>
       </c>
       <c r="G67">
-        <v>0.03379339371356341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03073938817807841</v>
+      </c>
+      <c r="H67">
+        <v>-0.005582512192402521</v>
+      </c>
+      <c r="I67">
+        <v>0.0390240328801669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.001626336461684914</v>
+        <v>-0.03837439660739696</v>
       </c>
       <c r="C68">
-        <v>-0.2474256947903455</v>
+        <v>-0.1776315042644322</v>
       </c>
       <c r="D68">
-        <v>0.003662685531946766</v>
+        <v>0.1595085700882924</v>
       </c>
       <c r="E68">
-        <v>0.03034519240263391</v>
+        <v>-0.001445832602242575</v>
       </c>
       <c r="F68">
-        <v>-0.003705246187085086</v>
+        <v>0.0418121835317856</v>
       </c>
       <c r="G68">
-        <v>0.009830457172529799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.007162614563314775</v>
+      </c>
+      <c r="H68">
+        <v>-0.005167335424489924</v>
+      </c>
+      <c r="I68">
+        <v>-0.1783202320839139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0691536833878217</v>
+        <v>-0.07205620696619636</v>
       </c>
       <c r="C69">
-        <v>0.01041471827968888</v>
+        <v>0.01897996518954178</v>
       </c>
       <c r="D69">
-        <v>-0.02132019107550598</v>
+        <v>-0.006138678878078372</v>
       </c>
       <c r="E69">
-        <v>-0.01196994465266904</v>
+        <v>-0.03068727926314655</v>
       </c>
       <c r="F69">
-        <v>-0.00082714862262296</v>
+        <v>0.006382605746486822</v>
       </c>
       <c r="G69">
-        <v>-0.005139844816508321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02350331880993914</v>
+      </c>
+      <c r="H69">
+        <v>0.03825509289117351</v>
+      </c>
+      <c r="I69">
+        <v>0.008924038080929697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.003948530823018354</v>
+        <v>-0.04157695739549336</v>
       </c>
       <c r="C71">
-        <v>-0.2695122648691365</v>
+        <v>-0.1870436780038195</v>
       </c>
       <c r="D71">
-        <v>0.002157445544786127</v>
+        <v>0.1770133072877984</v>
       </c>
       <c r="E71">
-        <v>0.06204585939798358</v>
+        <v>0.02041681538951405</v>
       </c>
       <c r="F71">
-        <v>0.01626332657871616</v>
+        <v>0.06438975409448</v>
       </c>
       <c r="G71">
-        <v>-0.0659320604866106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01297959527060307</v>
+      </c>
+      <c r="H71">
+        <v>-0.02388211685972345</v>
+      </c>
+      <c r="I71">
+        <v>-0.144581028689523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1166579128382153</v>
+        <v>-0.1209878295838256</v>
       </c>
       <c r="C72">
-        <v>-0.01452782533074783</v>
+        <v>0.01201688374816909</v>
       </c>
       <c r="D72">
-        <v>-0.04994432532339108</v>
+        <v>0.0002272212664925539</v>
       </c>
       <c r="E72">
-        <v>0.09356092338189503</v>
+        <v>-0.05552406816273497</v>
       </c>
       <c r="F72">
-        <v>0.003288988827299746</v>
+        <v>0.08705060211124892</v>
       </c>
       <c r="G72">
-        <v>0.06484279396214639</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04991159070497851</v>
+      </c>
+      <c r="H72">
+        <v>0.008907220793887959</v>
+      </c>
+      <c r="I72">
+        <v>0.03781229529012272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2697959742445422</v>
+        <v>-0.2620057988899618</v>
       </c>
       <c r="C73">
-        <v>-0.1952314416044551</v>
+        <v>-0.03784967818874049</v>
       </c>
       <c r="D73">
-        <v>0.01591726246408168</v>
+        <v>0.1507295751460013</v>
       </c>
       <c r="E73">
-        <v>0.3097237374125751</v>
+        <v>0.02470010086178119</v>
       </c>
       <c r="F73">
-        <v>0.0858610710455118</v>
+        <v>0.3121887434583088</v>
       </c>
       <c r="G73">
-        <v>-0.3394548508124175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.158005031113858</v>
+      </c>
+      <c r="H73">
+        <v>-0.4750770738914848</v>
+      </c>
+      <c r="I73">
+        <v>0.300153346174329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1611122884926332</v>
+        <v>-0.1527107343828449</v>
       </c>
       <c r="C74">
-        <v>-0.005548404799209513</v>
+        <v>0.02622428208283486</v>
       </c>
       <c r="D74">
-        <v>-0.0408959753901335</v>
+        <v>-0.001286493312434907</v>
       </c>
       <c r="E74">
-        <v>-0.01267104544760358</v>
+        <v>-0.04744430324704779</v>
       </c>
       <c r="F74">
-        <v>-0.05290012157993906</v>
+        <v>-0.04355948513662136</v>
       </c>
       <c r="G74">
-        <v>-0.06750273431310591</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01767977491943291</v>
+      </c>
+      <c r="H74">
+        <v>-0.02195296711195378</v>
+      </c>
+      <c r="I74">
+        <v>0.000331573889589407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2365579543445481</v>
+        <v>-0.240566522150572</v>
       </c>
       <c r="C75">
-        <v>-0.009714007104054588</v>
+        <v>0.03548010266380132</v>
       </c>
       <c r="D75">
-        <v>-0.05550801618882838</v>
+        <v>0.008536869405228463</v>
       </c>
       <c r="E75">
-        <v>-0.1266481237222422</v>
+        <v>-0.09874932778702884</v>
       </c>
       <c r="F75">
-        <v>-0.06156351950269778</v>
+        <v>-0.1357282566927646</v>
       </c>
       <c r="G75">
-        <v>-0.02085072897571569</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005498091977780492</v>
+      </c>
+      <c r="H75">
+        <v>-0.01696634536818522</v>
+      </c>
+      <c r="I75">
+        <v>-0.08220511558662574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2468706022543837</v>
+        <v>-0.2689665530878889</v>
       </c>
       <c r="C76">
-        <v>-0.01259429094049429</v>
+        <v>0.01177768692059836</v>
       </c>
       <c r="D76">
-        <v>-0.09883179125005463</v>
+        <v>-0.02028820308113248</v>
       </c>
       <c r="E76">
-        <v>-0.1141267051842634</v>
+        <v>-0.1329351927360011</v>
       </c>
       <c r="F76">
-        <v>-0.08242351545078544</v>
+        <v>-0.164215023626399</v>
       </c>
       <c r="G76">
-        <v>-0.04985088590558698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04758558372106431</v>
+      </c>
+      <c r="H76">
+        <v>-0.03790922644748377</v>
+      </c>
+      <c r="I76">
+        <v>-0.005425913327182064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1273455069823158</v>
+        <v>-0.1315475712672825</v>
       </c>
       <c r="C77">
-        <v>0.01568768612345562</v>
+        <v>0.0481189894596492</v>
       </c>
       <c r="D77">
-        <v>0.0446046074709814</v>
+        <v>-0.02516274671528298</v>
       </c>
       <c r="E77">
-        <v>0.1660691072779214</v>
+        <v>0.04414230884362606</v>
       </c>
       <c r="F77">
-        <v>0.01720700563109234</v>
+        <v>0.1692923107041354</v>
       </c>
       <c r="G77">
-        <v>0.1665285500564307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01464652793839085</v>
+      </c>
+      <c r="H77">
+        <v>0.2125690635432342</v>
+      </c>
+      <c r="I77">
+        <v>-0.1452954797723812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08466618613513884</v>
+        <v>-0.08501401622779048</v>
       </c>
       <c r="C78">
-        <v>0.03348155589773259</v>
+        <v>0.04483775605501063</v>
       </c>
       <c r="D78">
-        <v>0.01763975506131014</v>
+        <v>-0.03853289032913394</v>
       </c>
       <c r="E78">
-        <v>0.06809573634095641</v>
+        <v>0.002305414955251824</v>
       </c>
       <c r="F78">
-        <v>0.02285117752582683</v>
+        <v>0.08766703517691198</v>
       </c>
       <c r="G78">
-        <v>0.01709457457949458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.005140850041620751</v>
+      </c>
+      <c r="H78">
+        <v>0.04480542620367865</v>
+      </c>
+      <c r="I78">
+        <v>-0.01771561004304075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.06348163303381478</v>
+        <v>-0.146952955147992</v>
       </c>
       <c r="C80">
-        <v>0.005058362965112657</v>
+        <v>-0.6458077064751905</v>
       </c>
       <c r="D80">
-        <v>0.01337576253739095</v>
+        <v>-0.7278304918093067</v>
       </c>
       <c r="E80">
-        <v>0.03709010602704047</v>
+        <v>0.06770957051079603</v>
       </c>
       <c r="F80">
-        <v>-0.05280103400585532</v>
+        <v>0.03762340195598812</v>
       </c>
       <c r="G80">
-        <v>0.6406923299617802</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05917908606003391</v>
+      </c>
+      <c r="H80">
+        <v>-0.06431894610702725</v>
+      </c>
+      <c r="I80">
+        <v>0.00354722013999912</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1650522373226272</v>
+        <v>-0.1792723435417316</v>
       </c>
       <c r="C81">
-        <v>-0.00725369649411343</v>
+        <v>0.01114649313441478</v>
       </c>
       <c r="D81">
-        <v>-0.04269090639801751</v>
+        <v>0.00101190688756632</v>
       </c>
       <c r="E81">
-        <v>-0.1279728901440622</v>
+        <v>-0.08610349813027517</v>
       </c>
       <c r="F81">
-        <v>-0.1038674887037134</v>
+        <v>-0.1471844955305685</v>
       </c>
       <c r="G81">
-        <v>-0.03252945611948835</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02838154021995632</v>
+      </c>
+      <c r="H81">
+        <v>-0.01091664475019554</v>
+      </c>
+      <c r="I81">
+        <v>-0.03875231850757793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.08745319892775287</v>
+        <v>-0.06743612525869273</v>
       </c>
       <c r="C83">
-        <v>0.04185665431200667</v>
+        <v>0.04190122340950053</v>
       </c>
       <c r="D83">
-        <v>0.09051290555434355</v>
+        <v>-0.01431283472505054</v>
       </c>
       <c r="E83">
-        <v>0.0357989386365458</v>
+        <v>0.04246441974305975</v>
       </c>
       <c r="F83">
-        <v>0.0544658801657011</v>
+        <v>0.05679214383043752</v>
       </c>
       <c r="G83">
-        <v>0.010101251684883</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04450028044913294</v>
+      </c>
+      <c r="H83">
+        <v>0.02985493070228524</v>
+      </c>
+      <c r="I83">
+        <v>-0.003659061571759991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2370425413818315</v>
+        <v>-0.2552870553146649</v>
       </c>
       <c r="C85">
-        <v>0.05075540066110505</v>
+        <v>0.04916301516385588</v>
       </c>
       <c r="D85">
-        <v>-0.05146719215403057</v>
+        <v>-0.02645802508265768</v>
       </c>
       <c r="E85">
-        <v>-0.141008698416974</v>
+        <v>-0.08745942105451651</v>
       </c>
       <c r="F85">
-        <v>-0.06957579785094059</v>
+        <v>-0.1646716439314517</v>
       </c>
       <c r="G85">
-        <v>0.01621307219530588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.002960236063410555</v>
+      </c>
+      <c r="H85">
+        <v>0.02076849930442412</v>
+      </c>
+      <c r="I85">
+        <v>-0.03833061073091694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04467100740805736</v>
+        <v>-0.02969218637693855</v>
       </c>
       <c r="C86">
-        <v>0.04070561716836008</v>
+        <v>0.03810938936838718</v>
       </c>
       <c r="D86">
-        <v>-0.01329894887461184</v>
+        <v>-0.03018198479253201</v>
       </c>
       <c r="E86">
-        <v>0.06225702450845699</v>
+        <v>-0.007959468360611755</v>
       </c>
       <c r="F86">
-        <v>-0.005228902422425191</v>
+        <v>0.07271335339253772</v>
       </c>
       <c r="G86">
-        <v>0.04519640932758912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.001458745484018066</v>
+      </c>
+      <c r="H86">
+        <v>0.07689843099777756</v>
+      </c>
+      <c r="I86">
+        <v>-0.02834934922814793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02530758621663075</v>
+        <v>-0.03762434000555099</v>
       </c>
       <c r="C87">
-        <v>-0.0584138637230411</v>
+        <v>-0.01350610510392251</v>
       </c>
       <c r="D87">
-        <v>-0.0180023887618838</v>
+        <v>0.02139659780852111</v>
       </c>
       <c r="E87">
-        <v>0.06120122206151363</v>
+        <v>-0.004066855529996571</v>
       </c>
       <c r="F87">
-        <v>0.05668538657893235</v>
+        <v>0.09927796236034268</v>
       </c>
       <c r="G87">
-        <v>-0.1166985783554994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02331045074104575</v>
+      </c>
+      <c r="H87">
+        <v>-0.008497349194567363</v>
+      </c>
+      <c r="I87">
+        <v>0.02697425897107178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0387313302454808</v>
+        <v>-0.02727552648759081</v>
       </c>
       <c r="C88">
-        <v>0.02830766149355529</v>
+        <v>0.008107501705489214</v>
       </c>
       <c r="D88">
-        <v>-0.006045294862221477</v>
+        <v>-0.02158085512257903</v>
       </c>
       <c r="E88">
-        <v>-0.004688284072229113</v>
+        <v>-0.01589232528794692</v>
       </c>
       <c r="F88">
-        <v>-0.007593672515646091</v>
+        <v>-0.003031036604386685</v>
       </c>
       <c r="G88">
-        <v>0.0245322800220354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03271200904177793</v>
+      </c>
+      <c r="H88">
+        <v>0.04108017765962209</v>
+      </c>
+      <c r="I88">
+        <v>0.03206631075605412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.01968647625599326</v>
+        <v>-0.04875274721361839</v>
       </c>
       <c r="C89">
-        <v>-0.4200564167335806</v>
+        <v>-0.2836356381769755</v>
       </c>
       <c r="D89">
-        <v>0.09336193177957194</v>
+        <v>0.2790779156219352</v>
       </c>
       <c r="E89">
-        <v>-0.02508463042256331</v>
+        <v>0.04664883274723382</v>
       </c>
       <c r="F89">
-        <v>-0.005746514961299446</v>
+        <v>0.0173127649132574</v>
       </c>
       <c r="G89">
-        <v>0.07119695230573209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04659081445632889</v>
+      </c>
+      <c r="H89">
+        <v>0.04774697641190163</v>
+      </c>
+      <c r="I89">
+        <v>-0.2702821403136889</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.01532371661488852</v>
+        <v>-0.03407214453900391</v>
       </c>
       <c r="C90">
-        <v>-0.3141839961730248</v>
+        <v>-0.252426981531063</v>
       </c>
       <c r="D90">
-        <v>0.02885161190181703</v>
+        <v>0.2243628391091361</v>
       </c>
       <c r="E90">
-        <v>0.02561925545738076</v>
+        <v>0.0275507741782585</v>
       </c>
       <c r="F90">
-        <v>0.01077650299593454</v>
+        <v>0.03276606057055645</v>
       </c>
       <c r="G90">
-        <v>-0.03231373709973159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02442644887266701</v>
+      </c>
+      <c r="H90">
+        <v>0.003411280735904788</v>
+      </c>
+      <c r="I90">
+        <v>-0.2222993981579458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.3005313349838724</v>
+        <v>-0.3127045765178047</v>
       </c>
       <c r="C91">
-        <v>0.02308648696041832</v>
+        <v>0.04342636398619412</v>
       </c>
       <c r="D91">
-        <v>-0.04636338582491131</v>
+        <v>-0.01255976634508464</v>
       </c>
       <c r="E91">
-        <v>-0.2656424556528647</v>
+        <v>-0.09930455507757896</v>
       </c>
       <c r="F91">
-        <v>-0.1699139374690916</v>
+        <v>-0.2884976277048642</v>
       </c>
       <c r="G91">
-        <v>0.07465175129907417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.04300548048608624</v>
+      </c>
+      <c r="H91">
+        <v>-0.01683724969872692</v>
+      </c>
+      <c r="I91">
+        <v>-0.09983741210359215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.01037861391268952</v>
+        <v>-0.08695459107203926</v>
       </c>
       <c r="C92">
-        <v>-0.4247355345549756</v>
+        <v>-0.3472110544350368</v>
       </c>
       <c r="D92">
-        <v>0.2017268532500221</v>
+        <v>0.2797370185268697</v>
       </c>
       <c r="E92">
-        <v>-0.1148138758596189</v>
+        <v>0.05692791966052702</v>
       </c>
       <c r="F92">
-        <v>-0.07833881195507937</v>
+        <v>-0.1358495054302348</v>
       </c>
       <c r="G92">
-        <v>0.2901652903486649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08641101067816148</v>
+      </c>
+      <c r="H92">
+        <v>0.4419175544480266</v>
+      </c>
+      <c r="I92">
+        <v>0.7287061625264644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02470817938753108</v>
+        <v>-0.03482335194140569</v>
       </c>
       <c r="C93">
-        <v>-0.3707657898300115</v>
+        <v>-0.298489182560601</v>
       </c>
       <c r="D93">
-        <v>0.07256038102271958</v>
+        <v>0.2848672325502898</v>
       </c>
       <c r="E93">
-        <v>-0.04095366267309772</v>
+        <v>0.0552402956025644</v>
       </c>
       <c r="F93">
-        <v>-0.02247890206129505</v>
+        <v>-0.02015883454006799</v>
       </c>
       <c r="G93">
-        <v>0.06985758748110019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03476463554396794</v>
+      </c>
+      <c r="H93">
+        <v>-0.01117294897997764</v>
+      </c>
+      <c r="I93">
+        <v>-0.1943657301534886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2935646547476771</v>
+        <v>-0.3172771367896326</v>
       </c>
       <c r="C94">
-        <v>-0.03976826089837329</v>
+        <v>0.02420743460617726</v>
       </c>
       <c r="D94">
-        <v>0.005364746619583095</v>
+        <v>0.03946910328605812</v>
       </c>
       <c r="E94">
-        <v>-0.3625943507842471</v>
+        <v>-0.1411967563419379</v>
       </c>
       <c r="F94">
-        <v>-0.4282087739915045</v>
+        <v>-0.3645715411188926</v>
       </c>
       <c r="G94">
-        <v>-0.04399885676187561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1685782695640127</v>
+      </c>
+      <c r="H94">
+        <v>0.1142973405454032</v>
+      </c>
+      <c r="I94">
+        <v>-0.049030106889279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.2031893010455644</v>
+        <v>-0.1341060065497064</v>
       </c>
       <c r="C95">
-        <v>-0.03019329348874954</v>
+        <v>0.1035800257467163</v>
       </c>
       <c r="D95">
-        <v>0.009635655344620778</v>
+        <v>0.04866733583528716</v>
       </c>
       <c r="E95">
-        <v>-0.4547349429809917</v>
+        <v>-0.03055019669346526</v>
       </c>
       <c r="F95">
-        <v>0.8192798777333941</v>
+        <v>-0.04657779310470873</v>
       </c>
       <c r="G95">
-        <v>0.08840780420646988</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9244564043325724</v>
+      </c>
+      <c r="H95">
+        <v>-0.1675994914594774</v>
+      </c>
+      <c r="I95">
+        <v>0.02634887200726978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2153793494489687</v>
+        <v>-0.201536145587341</v>
       </c>
       <c r="C98">
-        <v>-0.1387151181000812</v>
+        <v>-0.02771291041400124</v>
       </c>
       <c r="D98">
-        <v>0.03122744120410229</v>
+        <v>0.1051926823845683</v>
       </c>
       <c r="E98">
-        <v>0.1036266547439333</v>
+        <v>0.0217763022864864</v>
       </c>
       <c r="F98">
-        <v>0.04524559845064052</v>
+        <v>0.1555768076826486</v>
       </c>
       <c r="G98">
-        <v>-0.2617276563065009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08532534362975226</v>
+      </c>
+      <c r="H98">
+        <v>-0.3460979690888379</v>
+      </c>
+      <c r="I98">
+        <v>0.1494648525232974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02070443874495881</v>
+        <v>-0.01552215368326898</v>
       </c>
       <c r="C101">
-        <v>0.016457896702388</v>
+        <v>0.0204727367420145</v>
       </c>
       <c r="D101">
-        <v>-0.02369070745228278</v>
+        <v>-0.02398091421144844</v>
       </c>
       <c r="E101">
-        <v>0.02763395899622082</v>
+        <v>-0.02858332105794145</v>
       </c>
       <c r="F101">
-        <v>0.01161565138029697</v>
+        <v>0.06679246022919733</v>
       </c>
       <c r="G101">
-        <v>0.01513957851667564</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.009527253371446106</v>
+      </c>
+      <c r="H101">
+        <v>0.1126174006286253</v>
+      </c>
+      <c r="I101">
+        <v>0.01217911520147629</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1187194518700846</v>
+        <v>-0.1209730124364743</v>
       </c>
       <c r="C102">
-        <v>0.01182787461321138</v>
+        <v>0.02072756635287581</v>
       </c>
       <c r="D102">
-        <v>-0.03621604408528804</v>
+        <v>-0.01734489501099628</v>
       </c>
       <c r="E102">
-        <v>-0.08883597228223081</v>
+        <v>-0.05482987874666354</v>
       </c>
       <c r="F102">
-        <v>-0.00573614489814607</v>
+        <v>-0.08945238654389646</v>
       </c>
       <c r="G102">
-        <v>0.001305742264760319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0283666507812805</v>
+      </c>
+      <c r="H102">
+        <v>-0.01586418316739461</v>
+      </c>
+      <c r="I102">
+        <v>-0.04423633444318137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.017196387586795</v>
+        <v>-0.03059298439655025</v>
       </c>
       <c r="C103">
-        <v>0.001268948282234713</v>
+        <v>0.0008171447797638011</v>
       </c>
       <c r="D103">
-        <v>-0.01134174245472959</v>
+        <v>-0.009925364951356533</v>
       </c>
       <c r="E103">
-        <v>-0.02255672240877172</v>
+        <v>-0.02088050046454625</v>
       </c>
       <c r="F103">
-        <v>-0.01059827596471597</v>
+        <v>-0.01792824548487188</v>
       </c>
       <c r="G103">
-        <v>-0.01164687420490819</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01604185506199696</v>
+      </c>
+      <c r="H103">
+        <v>0.01726765602660404</v>
+      </c>
+      <c r="I103">
+        <v>-0.0254825666467155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
